--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>607270.3388949984</v>
+        <v>538836.425446809</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.243055424</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10947499.68099521</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>131.7659851933074</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>155.5825568932142</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,40 +1074,40 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>82.96396779500064</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>11.13733751482909</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>64.38401073897953</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1308,52 +1308,52 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>321.28890918722</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>236.0502377560821</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>52.10844059186277</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>86.88462298447467</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>174.2425642047093</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>252.2612029891647</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
@@ -1736,7 +1736,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>150.5540262346244</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>370.304756115063</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>82.59957183215651</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V19" t="n">
-        <v>155.2114886365809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>161.7513045214304</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>338.3682296398985</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2137,7 +2137,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>101.780687729549</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>14.74435978870392</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>48.28463004918738</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>162.3364906735232</v>
+        <v>168.7756050755992</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>221.002178698296</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>113.2788623889631</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>4.440065804380684</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>248.8850931379793</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>10.28615088124246</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>70.18226380646121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>370.2220295884318</v>
       </c>
       <c r="C32" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>12.60471623380398</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>9.790440613649634</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>319.7612952641416</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>349.8553966500269</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>28.51033041214353</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>337.9463874884737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>253.9085398096162</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>56.88196987815802</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>234.2559520454602</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>286.4057264388517</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>303.5313813159055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>196.7218456862862</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,16 +3982,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>84.9149044044153</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>155.2114886365809</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.5825927271064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C2" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4369,13 +4369,13 @@
         <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y2" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.3780978509273</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>152.3780978509273</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
         <v>19.28114311021272</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V3" t="n">
-        <v>360.2295980564601</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W3" t="n">
-        <v>360.2295980564601</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>152.3780978509273</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.3780978509273</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4482,10 +4482,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
         <v>506.1786963984129</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4655,40 +4655,40 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>384.2867411876791</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>176.4352409821462</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4755,22 +4755,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C8" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D8" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E8" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4834,22 +4834,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>694.6722890434539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>520.2192597623269</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>520.2192597623269</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1920.409918978289</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C11" t="n">
-        <v>1595.875667274027</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018223</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018223</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018223</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.009759042411</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5141,16 +5141,16 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D13" t="n">
-        <v>675.4941957298054</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="E13" t="n">
-        <v>527.5811021474123</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="F13" t="n">
-        <v>380.6911546495019</v>
+        <v>141.7052272592278</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5238,13 +5238,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C14" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D14" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,7 +5278,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733127</v>
@@ -5305,25 +5305,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2521.146500912455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U14" t="n">
-        <v>2267.384715550547</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V14" t="n">
-        <v>1936.321828206976</v>
+        <v>2012.400522021833</v>
       </c>
       <c r="W14" t="n">
-        <v>1583.553172936862</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X14" t="n">
-        <v>1210.087414675782</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y14" t="n">
-        <v>1210.087414675782</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5360,22 +5360,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5384,16 +5384,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>667.8624625746712</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C16" t="n">
-        <v>667.8624625746712</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D16" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E16" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V16" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W16" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X16" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y16" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2323.103882821189</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C17" t="n">
-        <v>1954.141365880777</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>137.3768927619367</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>137.3768927619367</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424003</v>
@@ -5594,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5679,40 +5679,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1540.921096014692</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C20" t="n">
-        <v>1171.95857907428</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D20" t="n">
-        <v>813.6928804675297</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
         <v>471.9067899221776</v>
@@ -5755,10 +5755,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5785,19 +5785,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>1893.689751284806</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W20" t="n">
-        <v>1540.921096014692</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X20" t="n">
-        <v>1540.921096014692</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y20" t="n">
-        <v>1540.921096014692</v>
+        <v>1404.543549400789</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.8791647482714</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E22" t="n">
         <v>53.94298182036445</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>625.3202087220412</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>625.3202087220412</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y22" t="n">
-        <v>404.5276295785111</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1150.78176403888</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C23" t="n">
-        <v>781.8192470984684</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D23" t="n">
-        <v>781.8192470984684</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E23" t="n">
-        <v>396.0309945002242</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>396.0309945002242</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G23" t="n">
-        <v>396.0309945002242</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>68.83627453622699</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284806</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>1540.921096014692</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>1540.921096014692</v>
+        <v>1964.5451948195</v>
       </c>
       <c r="Y23" t="n">
-        <v>1150.78176403888</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T25" t="n">
-        <v>564.1527310008552</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="U25" t="n">
-        <v>564.1527310008552</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V25" t="n">
-        <v>564.1527310008552</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W25" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X25" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247702</v>
+        <v>1150.781764038881</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>1150.781764038881</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>1150.781764038881</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6326,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X28" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>723.6440692525144</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>766.9259543826058</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C29" t="n">
-        <v>766.9259543826058</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D29" t="n">
-        <v>766.9259543826058</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6466,10 +6466,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2686.759039623028</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2686.759039623028</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2468.124372595091</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2214.362587233182</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V29" t="n">
-        <v>1883.299699889611</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W29" t="n">
-        <v>1530.531044619497</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X29" t="n">
-        <v>1157.065286358418</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y29" t="n">
-        <v>766.9259543826058</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6563,7 +6563,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2528.212908090316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2378.09626867798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.5099885583422</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C32" t="n">
-        <v>53.94298182036445</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036445</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
         <v>53.94298182036445</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X32" t="n">
-        <v>936.2491605982757</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y32" t="n">
-        <v>546.109828622464</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="33">
@@ -6800,7 +6800,7 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>224.4233909876363</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C34" t="n">
-        <v>224.4233909876363</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D34" t="n">
-        <v>224.4233909876363</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>224.4233909876363</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036445</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>224.4233909876363</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X34" t="n">
-        <v>224.4233909876363</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.4233909876363</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1584.823100673951</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C35" t="n">
-        <v>1215.860583733539</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D35" t="n">
-        <v>857.5948851267888</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E35" t="n">
-        <v>857.5948851267888</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>857.5948851267888</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224079</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V35" t="n">
-        <v>2311.057514205145</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W35" t="n">
-        <v>1958.288858935031</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X35" t="n">
-        <v>1584.823100673951</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y35" t="n">
-        <v>1584.823100673951</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7104,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1579.049931616194</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C38" t="n">
-        <v>1210.087414675782</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D38" t="n">
-        <v>1210.087414675782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X38" t="n">
-        <v>2355.789103656128</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y38" t="n">
-        <v>1965.649771680316</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7356,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1933.544000781331</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="C41" t="n">
-        <v>1933.544000781331</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.27830217458</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>1189.490049576336</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>778.5041447867286</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>360.5403366849155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>529.4200491697815</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U43" t="n">
-        <v>529.4200491697815</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V43" t="n">
-        <v>274.7355609638946</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W43" t="n">
-        <v>274.7355609638946</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X43" t="n">
-        <v>274.7355609638946</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D44" t="n">
-        <v>1122.952954307291</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E44" t="n">
-        <v>737.1647017090463</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
-        <v>326.1787969194388</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7681,19 +7681,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,25 +7727,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036445</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>571.3497027553424</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U46" t="n">
-        <v>571.3497027553424</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V46" t="n">
-        <v>571.3497027553424</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9325327183818</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,10 +8069,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360582</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>335.8613673013232</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>15.67908037133134</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22722,13 +22722,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>161.7172443298368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>50.1001388840902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22962,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>323.9120779467108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>269.1307943144919</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23074,10 +23074,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>146.5077429405719</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>135.7807179558421</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23196,7 +23196,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>43.98398258378751</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23314,7 +23314,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>15.17392975220721</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23421,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>96.50703242634958</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>80.42517927457624</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>42.20575615294845</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>75.49105548097023</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>29.27795394731294</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>192.4737869083824</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12.42908554841756</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>69.33174441270474</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V19" t="n">
-        <v>96.92615468724711</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>220.9825371420502</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>43.56214043236326</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>51.79469286292885</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24183,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>184.742310607042</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>137.1869564561573</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>321.4464706292816</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24414,10 +24414,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>62.69861478456104</v>
+        <v>56.25950038248507</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>144.2707130727115</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>241.4041792317199</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24654,7 +24654,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>1.885271837007195</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>214.1445875477141</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>133.8487485255013</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>44.19225169356925</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>85.98862503533394</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24891,16 +24891,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>12.51181207504879</v>
       </c>
       <c r="C32" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>154.7050860252469</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25125,7 +25125,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>208.7942127384452</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>94.02287475665338</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>36.38254200602671</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25365,16 +25365,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3958356744439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>223.6273129116845</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>31.78471318999533</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>132.3293988464374</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>110.4278323808929</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25596,10 +25596,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25608,16 +25608,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>17.88169127836775</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>78.86716533215582</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>20.39139144845166</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25839,13 +25839,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>28.31325977179807</v>
+        <v>165.3712490426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25921,19 +25921,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>264.3260643129977</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26076,7 +26076,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>69.82361682150338</v>
+        <v>165.3082678822158</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484513</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484507</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
@@ -26343,13 +26343,13 @@
         <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="M2" t="n">
         <v>231322.0880126062</v>
       </c>
-      <c r="M2" t="n">
-        <v>231322.0880126061</v>
-      </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429962</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26453,7 +26453,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="N4" t="n">
-        <v>27086.83710496504</v>
+        <v>27086.83710496503</v>
       </c>
       <c r="O4" t="n">
         <v>27086.83710496504</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26490,10 +26490,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26502,7 +26502,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21404.43048286273</v>
+        <v>-33622.44110290322</v>
       </c>
       <c r="C6" t="n">
-        <v>59365.001048685</v>
+        <v>47146.99042864454</v>
       </c>
       <c r="D6" t="n">
-        <v>59365.00104868497</v>
+        <v>47146.99042864454</v>
       </c>
       <c r="E6" t="n">
-        <v>-277842.4011987646</v>
+        <v>-283910.8149445836</v>
       </c>
       <c r="F6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="G6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="H6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="I6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="J6" t="n">
-        <v>91943.83024512544</v>
+        <v>85875.41649930623</v>
       </c>
       <c r="K6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="L6" t="n">
-        <v>155003.7728442317</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="M6" t="n">
-        <v>47030.41217017344</v>
+        <v>40961.99842435431</v>
       </c>
       <c r="N6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="O6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="P6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="G3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="G3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26810,10 +26810,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26822,10 +26822,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,10 +34789,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35497,10 +35497,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36682,10 +36682,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37630,13 +37630,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839184</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>538836.425446809</v>
+        <v>599671.900358509</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554238</v>
+        <v>337002.2430554236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099521</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D2" t="n">
         <v>52.42556848774763</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.23097888973112</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -834,46 +834,46 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>3.265316057196634</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="7">
@@ -1150,10 +1150,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>64.38401073897953</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>236.0502377560821</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>166.6461101577047</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1505,7 +1505,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>86.88462298447467</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>47.14167849255917</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>252.2612029891647</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>197.9240804051657</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.5540262346244</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>174.9442930587128</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>254.4950516443633</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>82.59957183215651</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>161.7513045214304</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>142.3407393867361</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>68.19029374363612</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>98.63122914173799</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>48.28463004918738</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2529,7 +2529,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>168.7756050755992</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>11.00429467105829</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>113.2788623889631</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>273.0469419507085</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>147.3596012393432</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.440065804380684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>248.8850931379793</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,10 +2800,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>250.3969541190192</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2842,16 +2842,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>128.7835007017901</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>216.6993815150876</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>370.2220295884318</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3091,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>157.5651754249425</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>68.4943989986722</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>84.17242110755895</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>349.8553966500269</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>113.9615837039751</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>28.51033041214353</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>199.3355115125533</v>
       </c>
       <c r="Y38" t="n">
-        <v>253.9085398096162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3635,7 +3635,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T39" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U39" t="n">
         <v>225.8879277888686</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>56.88196987815802</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>195.7571515107713</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>286.4057264388517</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>47.40419526769224</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>59.66385641544537</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>43.99240337009272</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>243.2348912833898</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>84.9149044044153</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.44420492154089</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>315.6850394389064</v>
+      </c>
+      <c r="C2" t="n">
         <v>72.23626279480629</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4369,13 +4369,13 @@
         <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="X2" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="Y2" t="n">
         <v>559.1338160830064</v>
-      </c>
-      <c r="X2" t="n">
-        <v>559.1338160830064</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>38.70637431196133</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4418,43 +4418,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>913.4938269565423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>38.70637431196133</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="6">
@@ -4658,10 +4658,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4679,16 +4679,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F8" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G8" t="n">
-        <v>90.33569644483418</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T9" t="n">
-        <v>899.0228012288387</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U9" t="n">
-        <v>670.7991829652278</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V9" t="n">
-        <v>435.6470747334852</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4989,16 +4989,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1626.94664591678</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.94664591678</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5041,13 +5041,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5068,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2403.685817956713</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2403.685817956713</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2403.685817956713</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X11" t="n">
-        <v>2403.685817956713</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="Y11" t="n">
-        <v>2013.546485980902</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5156,7 +5156,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.7118141694738</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C13" t="n">
-        <v>438.7118141694738</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D13" t="n">
-        <v>288.5951747571381</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>288.5951747571381</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>141.7052272592278</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036445</v>
@@ -5238,13 +5238,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.7118141694738</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C14" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D14" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
@@ -5284,46 +5284,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U14" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V14" t="n">
-        <v>2012.400522021833</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W14" t="n">
-        <v>1659.631866751719</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X14" t="n">
-        <v>1659.631866751719</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y14" t="n">
-        <v>1269.492534775907</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5402,7 +5402,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.7460229006679</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C16" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D16" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E16" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>500.820796875036</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="W16" t="n">
-        <v>500.820796875036</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="X16" t="n">
-        <v>500.820796875036</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="Y16" t="n">
-        <v>500.820796875036</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2079.343073798764</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C17" t="n">
-        <v>1710.380556858352</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="D17" t="n">
-        <v>1352.114858251602</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>966.3266056533573</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>555.3407008637498</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>137.3768927619367</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>137.3768927619367</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5518,7 +5518,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224076</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2465.942913862886</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X17" t="n">
-        <v>2465.942913862886</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y17" t="n">
-        <v>2465.942913862886</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424003</v>
@@ -5594,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1241.158393318536</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C20" t="n">
-        <v>1241.158393318536</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5755,16 +5755,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2478.514423990285</v>
+        <v>2279.707209887712</v>
       </c>
       <c r="V20" t="n">
-        <v>2147.451536646714</v>
+        <v>1948.644322544141</v>
       </c>
       <c r="W20" t="n">
-        <v>1794.6828813766</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="X20" t="n">
-        <v>1794.6828813766</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y20" t="n">
-        <v>1404.543549400789</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="21">
@@ -5813,19 +5813,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C22" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D22" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>659.249899616903</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>659.249899616903</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610022</v>
+        <v>659.249899616903</v>
       </c>
       <c r="W22" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X22" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755379</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082163</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>898.7290140697485</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>480.7652059679353</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>153.5704860039382</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036446</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X23" t="n">
-        <v>1964.5451948195</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y23" t="n">
-        <v>1964.5451948195</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6177,19 +6177,19 @@
         <v>513.840561024597</v>
       </c>
       <c r="T25" t="n">
-        <v>343.3601518573251</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U25" t="n">
-        <v>343.3601518573251</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V25" t="n">
-        <v>343.3601518573251</v>
+        <v>513.840561024597</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y25" t="n">
         <v>53.94298182036446</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1150.781764038881</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C26" t="n">
-        <v>1150.781764038881</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D26" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E26" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.689751284806</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>1540.921096014692</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X26" t="n">
-        <v>1540.921096014692</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y26" t="n">
-        <v>1150.781764038881</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6326,31 +6326,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>541.9956044222747</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C28" t="n">
-        <v>373.0594214943678</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D28" t="n">
-        <v>222.942782082032</v>
+        <v>350.7041574627002</v>
       </c>
       <c r="E28" t="n">
-        <v>222.942782082032</v>
+        <v>202.7910638803071</v>
       </c>
       <c r="F28" t="n">
-        <v>222.942782082032</v>
+        <v>202.7910638803071</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y28" t="n">
-        <v>723.6440692525144</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1995.909162857192</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="C29" t="n">
-        <v>1626.94664591678</v>
+        <v>1083.098704810766</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>724.8330062040152</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>724.8330062040152</v>
       </c>
       <c r="F29" t="n">
         <v>471.9067899221776</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>2247.308246834948</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>2247.308246834948</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X29" t="n">
-        <v>2247.308246834948</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y29" t="n">
-        <v>2247.308246834948</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6542,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6651,16 +6651,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>598.0446400632119</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>598.0446400632119</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X31" t="n">
         <v>53.94298182036445</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1166.959449965771</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="C32" t="n">
-        <v>797.9969330253591</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="D32" t="n">
-        <v>439.7312344186087</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.689751284806</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>1540.921096014692</v>
+        <v>1558.355520745499</v>
       </c>
       <c r="X32" t="n">
-        <v>1540.921096014692</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="Y32" t="n">
-        <v>1540.921096014692</v>
+        <v>1184.889762484419</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>200.8329293182748</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C34" t="n">
         <v>200.8329293182748</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>658.9427225916138</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694736</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X34" t="n">
-        <v>210.7222632714563</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.8329293182748</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C35" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D35" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6967,22 +6967,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.308246834949</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V35" t="n">
-        <v>1916.245359491378</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W35" t="n">
-        <v>1563.476704221264</v>
+        <v>2127.158480917584</v>
       </c>
       <c r="X35" t="n">
-        <v>1563.476704221264</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y35" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
         <v>309.190302261463</v>
@@ -7037,7 +7037,7 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>517.6822058285749</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="C37" t="n">
-        <v>348.7460229006679</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>169.0556926324605</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7104,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V37" t="n">
-        <v>699.3306706588146</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W37" t="n">
-        <v>699.3306706588146</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X37" t="n">
-        <v>699.3306706588146</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y37" t="n">
-        <v>699.3306706588146</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1780.41262192169</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C38" t="n">
-        <v>1780.41262192169</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.14692331494</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.358670716696</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
@@ -7180,7 +7180,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>2423.485734520778</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X38" t="n">
-        <v>2423.485734520778</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="Y38" t="n">
-        <v>2167.012461985812</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7283,19 +7283,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.3995170508271</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C40" t="n">
-        <v>111.3995170508271</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D40" t="n">
-        <v>111.3995170508271</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>111.3995170508271</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>111.3995170508271</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>513.8405610245969</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="U40" t="n">
-        <v>513.8405610245969</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="V40" t="n">
-        <v>513.8405610245969</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="W40" t="n">
-        <v>513.8405610245969</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="X40" t="n">
-        <v>513.8405610245969</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="Y40" t="n">
-        <v>293.0479818810668</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1916.245359491378</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C41" t="n">
-        <v>1626.94664591678</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7444,19 +7444,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>1916.245359491378</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>1916.245359491378</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y41" t="n">
-        <v>1916.245359491378</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="42">
@@ -7466,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W43" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X43" t="n">
-        <v>667.8624625746712</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y43" t="n">
-        <v>667.8624625746712</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1584.923258067584</v>
+        <v>1549.547090562791</v>
       </c>
       <c r="C44" t="n">
-        <v>1215.960741127172</v>
+        <v>1549.547090562791</v>
       </c>
       <c r="D44" t="n">
-        <v>857.6950425204218</v>
+        <v>1191.281391956041</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V44" t="n">
-        <v>2057.295728843236</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W44" t="n">
-        <v>1971.523098131706</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X44" t="n">
-        <v>1971.523098131706</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y44" t="n">
-        <v>1971.523098131706</v>
+        <v>1936.146930626913</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,31 +7727,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073963</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>667.7988452409105</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C46" t="n">
-        <v>498.8626623130036</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="D46" t="n">
-        <v>348.7460229006679</v>
+        <v>154.3916736603047</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>154.3916736603047</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036445</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>667.7988452409105</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W46" t="n">
-        <v>667.7988452409105</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X46" t="n">
-        <v>667.7988452409105</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y46" t="n">
-        <v>667.7988452409105</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,13 +9956,13 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>350.4438349360582</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,10 +22549,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>312.8473232832599</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22609,7 +22609,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>153.4775200985846</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22722,7 +22722,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>186.6629199992865</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>219.8305335069347</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="7">
@@ -23038,10 +23038,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>269.1307943144919</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>135.7807179558421</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>15.17392975220721</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>203.0849905207644</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>80.42517927457624</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595356</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>75.49105548097023</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>171.8070202733034</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.27795394731294</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>77.19335026511519</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>100.1879899763196</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>69.33174441270474</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,13 +23946,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>220.9825371420502</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>108.8834281215532</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>51.79469286292885</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>156.8448117144482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>53.30008710312326</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>321.4464706292816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>56.25950038248507</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>275.5187036655327</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>241.4041792317199</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>96.68415872776052</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>19.95020101970772</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24654,7 +24654,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.1445875477141</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>133.8487485255013</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>156.4790916226922</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24891,19 +24891,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>96.25160475629417</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12.51181207504879</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24967,7 +24967,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>191.6757932924706</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25128,22 +25128,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>156.5407064594121</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.7942127384452</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>265.0685476098541</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>36.38254200602671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>32.47237894259409</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25365,13 +25365,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>223.6273129116845</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>170.3955891659157</v>
       </c>
       <c r="Y38" t="n">
-        <v>132.3293988464374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>110.4278323808929</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25599,10 +25599,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>29.27795394731294</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>78.86716533215582</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.5261748045696</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25839,7 +25839,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>165.3712490426389</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>181.7172520189444</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>138.695478788872</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>264.3260643129977</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.97684310139036</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26076,13 +26076,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>165.3082678822158</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495131</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>807285.7756484513</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>807285.7756484507</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
@@ -26337,7 +26337,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
@@ -26346,13 +26346,13 @@
         <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="N2" t="n">
+        <v>231322.088012606</v>
+      </c>
+      <c r="O2" t="n">
         <v>231322.0880126062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>231322.0880126062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126061</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740582</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="H4" t="n">
-        <v>27086.83710496504</v>
+        <v>27086.83710496503</v>
       </c>
       <c r="I4" t="n">
         <v>27086.83710496504</v>
@@ -26453,7 +26453,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="N4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="O4" t="n">
         <v>27086.83710496504</v>
@@ -26481,7 +26481,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26493,7 +26493,7 @@
         <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26502,7 +26502,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33622.44110290322</v>
+        <v>-22626.23154486683</v>
       </c>
       <c r="C6" t="n">
-        <v>47146.99042864454</v>
+        <v>58143.19998668096</v>
       </c>
       <c r="D6" t="n">
-        <v>47146.99042864454</v>
+        <v>58143.19998668096</v>
       </c>
       <c r="E6" t="n">
-        <v>-283910.8149445836</v>
+        <v>-278449.2425733464</v>
       </c>
       <c r="F6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="G6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="H6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="I6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="J6" t="n">
-        <v>85875.41649930623</v>
+        <v>91336.98887054346</v>
       </c>
       <c r="K6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="L6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="M6" t="n">
-        <v>40961.99842435431</v>
+        <v>46423.57079559152</v>
       </c>
       <c r="N6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696496</v>
       </c>
       <c r="O6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="P6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="H3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26801,7 +26801,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26813,7 +26813,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26822,10 +26822,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36454,7 +36454,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>401.1632560839184</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37876,7 +37876,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
